--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3694.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3694.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.702447378393389</v>
+        <v>1.732581377029419</v>
       </c>
       <c r="B1">
-        <v>5.200276428976551</v>
+        <v>4.256258010864258</v>
       </c>
       <c r="C1">
-        <v>5.12435433546292</v>
+        <v>3.381970167160034</v>
       </c>
       <c r="D1">
-        <v>1.357579437595257</v>
+        <v>2.181460618972778</v>
       </c>
       <c r="E1">
-        <v>0.8837852398215089</v>
+        <v>1.882538080215454</v>
       </c>
     </row>
   </sheetData>
